--- a/assets/sp_cetesb_infoaguas/excel/DEMB02800.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/DEMB02800.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,17 +506,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00400000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +532,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -546,7 +542,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,17 +562,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.79000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,17 +588,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -626,18 +614,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>0.00010000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -652,18 +644,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.79000000</t>
+          <t>1.07000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -678,13 +670,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -704,18 +696,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.00000000</t>
+          <t>1.59000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -730,7 +722,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
+          <t>Cobre Dissolvido</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -740,7 +732,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00010000</t>
+          <t>0.00400000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -760,18 +752,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cor Verdadeira</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>156.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>mg Pt/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -786,13 +782,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>0.35000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -812,22 +808,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -842,13 +834,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.59000000</t>
+          <t>0.08000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -868,17 +860,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>5.24000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -898,17 +886,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>2.08000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -928,18 +912,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.35000000</t>
+          <t>3.80000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -954,18 +938,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.85000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -980,18 +964,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.08000000</t>
+          <t>420000.00000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1006,13 +990,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.24000000</t>
+          <t>21.20000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1032,18 +1016,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>99.00000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1058,13 +1042,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.08000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1084,13 +1068,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21.20000000</t>
+          <t>5.85000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1110,18 +1094,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.80000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1136,18 +1124,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Cor Verdadeira</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.05000000</t>
+          <t>156.00000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg Pt/L</t>
         </is>
       </c>
     </row>
@@ -1162,18 +1150,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.07000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1188,13 +1180,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1214,18 +1210,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>420000.00000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1240,13 +1236,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.70000000</t>
+          <t>1.05000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1266,18 +1262,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>24.60000000</t>
+          <t>6.60000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1292,13 +1288,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.58000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1318,13 +1318,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>122.00000000</t>
+          <t>2.06000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1344,18 +1344,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>40.00000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1370,22 +1370,18 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>27.90000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1400,18 +1396,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>40.00000000</t>
+          <t>24.60000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1426,13 +1422,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>111.00000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1452,17 +1448,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>111.00000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1482,18 +1474,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>27.90000000</t>
+          <t>8.70000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1508,13 +1500,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.06000000</t>
+          <t>6.82000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1534,13 +1526,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.82000000</t>
+          <t>122.00000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1560,13 +1552,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.60000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1586,18 +1582,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6.60000000</t>
+          <t>2.60000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1612,13 +1608,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1638,18 +1638,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>4.58000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1690,18 +1690,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16.00000000</t>
+          <t>132.00000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1742,17 +1746,13 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>32.00000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1772,18 +1772,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.30000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1798,18 +1802,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.90000000</t>
+          <t>16.00000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1824,18 +1828,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6.89000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1850,13 +1854,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1876,13 +1884,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.24000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1902,18 +1914,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>24.30000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1928,18 +1944,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>6.89000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1954,13 +1970,13 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>1.24000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1980,22 +1996,18 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.00010000</t>
+          <t>2.30000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2010,13 +2022,13 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>155.00000000</t>
+          <t>2.75000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2036,13 +2048,13 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.50000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2062,13 +2074,13 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>20.00000000</t>
+          <t>5.98000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2088,13 +2100,13 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5.98000000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2114,17 +2126,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2144,18 +2152,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>132.00000000</t>
+          <t>159.00000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2178,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Níquel Total</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2180,7 +2188,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2200,13 +2208,13 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.75000000</t>
+          <t>0.90000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2226,17 +2234,13 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>155.00000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2256,13 +2260,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2308,13 +2316,13 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>159.00000000</t>
+          <t>20.00000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2334,13 +2342,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.21000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2360,18 +2368,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>4.50000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2386,13 +2394,13 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2412,13 +2420,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10.60000000</t>
+          <t>0.00010000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2438,18 +2450,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>24.30000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2464,17 +2476,13 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.21000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2494,17 +2502,13 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>11.90000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2524,22 +2528,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2554,13 +2554,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2580,18 +2584,18 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>221.00000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2606,17 +2610,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>10.60000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2692,18 +2692,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>221.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2718,17 +2718,13 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2748,7 +2744,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2758,7 +2754,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2778,13 +2774,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>32.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2804,13 +2804,13 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>11.90000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2830,18 +2830,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>136.00000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2856,18 +2856,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>4.76000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2882,13 +2882,13 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4.76000000</t>
+          <t>0.14000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -2908,18 +2908,18 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>29.30000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2934,13 +2934,13 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>18.20000000</t>
+          <t>144.00000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -2960,13 +2960,13 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6.48000000</t>
+          <t>1.07000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -2986,13 +2986,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>144.00000000</t>
+          <t>10.40000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3012,13 +3012,13 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.90000000</t>
+          <t>0.17000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Cobre Dissolvido</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3098,13 +3098,13 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>8.47000000</t>
+          <t>5.56000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3124,22 +3124,18 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3154,17 +3150,13 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>2.69000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3184,17 +3176,13 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>2.72000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3214,18 +3202,18 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>110.00000000</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3240,17 +3228,13 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>8.47000000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3270,13 +3254,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>10.40000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3296,17 +3284,13 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.74000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3326,13 +3310,13 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6.12000000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3352,13 +3336,13 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>31.50000000</t>
+          <t>18.20000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3378,18 +3362,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>198.40000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3404,13 +3392,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>8.91000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3430,13 +3422,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5.56000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3482,13 +3478,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.21000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3508,13 +3508,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2.69000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3534,13 +3538,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2.72000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3560,18 +3568,18 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>198.40000000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -3586,17 +3594,13 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>6.12000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3616,13 +3620,13 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>8.91000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3642,13 +3646,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.74000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3668,13 +3676,13 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.07000000</t>
+          <t>110.00000000</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3694,13 +3702,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0.14000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3720,17 +3732,13 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -3750,17 +3758,13 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>2.26000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -3780,13 +3784,13 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2.26000000</t>
+          <t>6.48000000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -3806,18 +3810,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>29.30000000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3832,13 +3836,13 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>0.90000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -3858,13 +3862,13 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.17000000</t>
+          <t>31.50000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -3884,18 +3888,18 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>136.00000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3910,17 +3914,13 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.21000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3940,17 +3940,13 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -3970,7 +3966,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3980,12 +3976,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4000,13 +3996,13 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>13.00000000</t>
+          <t>2.20000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4026,18 +4022,18 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>26.50000000</t>
+          <t>2.80000000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4052,18 +4048,18 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>19.00000000</t>
+          <t>12.60000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4078,13 +4074,13 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>12.60000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4104,13 +4100,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.00010000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4130,18 +4130,18 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>31.90000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4156,13 +4156,13 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>118.00000000</t>
+          <t>1.14000000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4182,13 +4182,13 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>4.05000000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4208,22 +4208,18 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4238,13 +4234,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>84.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Níquel Total</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4294,18 +4294,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4320,18 +4324,18 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>680.00000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4346,13 +4350,13 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>13.00000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -4372,18 +4376,18 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>28.90000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4398,13 +4402,13 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4424,18 +4428,18 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Cor Verdadeira</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>123.00000000</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg Pt/L</t>
         </is>
       </c>
     </row>
@@ -4450,13 +4454,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4476,18 +4484,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>6.75000000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4532,13 +4540,17 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -4558,22 +4570,18 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>156.20000000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4588,13 +4596,13 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -4614,13 +4622,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -4640,18 +4652,18 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Cor Verdadeira</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>123.00000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>mg Pt/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4666,18 +4678,18 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2.20000000</t>
+          <t>19.00000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4692,18 +4704,18 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>156.20000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4718,17 +4730,13 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0.00010000</t>
+          <t>33.00000000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -4748,18 +4756,18 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>31.90000000</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4774,13 +4782,13 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2.80000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -4800,22 +4808,18 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>28.90000000</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4830,18 +4834,18 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>4.05000000</t>
+          <t>680.00000000</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4856,17 +4860,13 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>118.00000000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -4886,18 +4886,18 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>33.00000000</t>
+          <t>26.50000000</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -4942,22 +4942,18 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4972,17 +4968,13 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5002,13 +4994,13 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5028,13 +5020,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1.14000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5054,13 +5050,13 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5080,13 +5076,13 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>84.00000000</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5106,16 +5102,2384 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1.80000000</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>66.00000000</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>17.40000000</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>8.40000000</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>117.00000000</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0.20000000</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1.55000000</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>12.30000000</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>22.00000000</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>19.00000000</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>61.00000000</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>0.60000000</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.13000000</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>3.30000000</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>3.20000000</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>30.00000000</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Incolor</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>4.00000000</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>8.00000000</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>195.30000000</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>144.00000000</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
           <t>pH</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>6.75000000</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>7.02000000</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>10.50000000</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.07000000</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4.60000000</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.00010000</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>5.53000000</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>44362.42361111111</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>9.70000000</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>5200.00000000</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>24.00000000</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>22.00000000</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>0.40000000</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>140.00000000</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Marrom</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>0.08000000</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>128.20000000</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2.24000000</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>0.75000000</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>3.10000000</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>6.60000000</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>0.07000000</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>8.00000000</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>12.00000000</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>10.00000000</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>22.10000000</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>0.13000000</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>186.00000000</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>0.04000000</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>220.00000000</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>7.00000000</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>245.00000000</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>15.00000000</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>20.20000000</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>0.00010000</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>DEMB02800</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>44489.42708333334</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>6.71000000</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
